--- a/results/layer_stacking_Results.xlsx
+++ b/results/layer_stacking_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindb\Desktop\PineTreeDelineation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359AE6C0-3C99-44F7-B75F-DC18CAB5693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9358C871-2678-47B9-B0E4-296C1854DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,24 +805,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="47.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="11" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="47.7265625" customWidth="1"/>
+    <col min="8" max="8" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -886,46 +887,46 @@
         <v>5.3284764289855904</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K27" si="0">ABS((B2-G2) / B2) *100</f>
+        <f>ABS((B2-G2) / B2) *100</f>
         <v>47.800586510263933</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>23</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>116</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="10">
         <v>57</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="10">
         <v>2324318</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <v>3795.8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>612.34</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="10">
         <v>77</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I27" si="1">(B3/E3)</f>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <f>(B3/E3)</f>
         <v>3.0560092734074503E-2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="10">
         <v>3.52439832687377</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="10">
         <f>ABS((B3-G3) / B3) *100</f>
         <v>33.620689655172413</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -949,18 +950,18 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
+        <f>(B4/E4)</f>
         <v>5.1500499938363767E-2</v>
       </c>
       <c r="J4" s="3">
         <v>11.688466310500999</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B4-G4) / B4) *100</f>
         <v>29.25531914893617</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>45</v>
       </c>
@@ -984,18 +985,18 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f>(B5/E5)</f>
         <v>5.3650725522888229E-2</v>
       </c>
       <c r="J5" s="3">
         <v>0.49235701560974099</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B5-G5) / B5) *100</f>
         <v>29.230769230769234</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1019,18 +1020,18 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f>(B6/E6)</f>
         <v>4.7558855837744336E-2</v>
       </c>
       <c r="J6" s="3">
         <v>10.463309288024901</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B6-G6) / B6) *100</f>
         <v>23.303834808259587</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>17</v>
       </c>
@@ -1054,18 +1055,18 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f>(B7/E7)</f>
         <v>4.9179703328634708E-2</v>
       </c>
       <c r="J7" s="3">
         <v>5.7579751014709402</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B7-G7) / B7) *100</f>
         <v>20.422535211267608</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1089,18 +1090,18 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f>(B8/E8)</f>
         <v>2.6964491616611151E-2</v>
       </c>
       <c r="J8" s="3">
         <v>4.8823776245117099</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B8-G8) / B8) *100</f>
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1124,18 +1125,18 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f>(B9/E9)</f>
         <v>2.7648970544473839E-2</v>
       </c>
       <c r="J9" s="3">
         <v>14.588026523590001</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B9-G9) / B9) *100</f>
         <v>19.491525423728813</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -1159,18 +1160,18 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
+        <f>(B10/E10)</f>
         <v>2.8930137031679605E-2</v>
       </c>
       <c r="J10" s="3">
         <v>6.1678228378295898</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B10-G10) / B10) *100</f>
         <v>17.557251908396946</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>18</v>
       </c>
@@ -1194,18 +1195,18 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f>(B11/E11)</f>
         <v>4.3506574480761499E-2</v>
       </c>
       <c r="J11" s="3">
         <v>4.0047724246978698</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B11-G11) / B11) *100</f>
         <v>16.560509554140125</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1229,18 +1230,18 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
+        <f>(B12/E12)</f>
         <v>5.6045691139951795E-2</v>
       </c>
       <c r="J12" s="3">
         <v>14.9839701652526</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B12-G12) / B12) *100</f>
         <v>16.449086161879894</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1264,18 +1265,18 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f>(B13/E13)</f>
         <v>5.3045635568322778E-2</v>
       </c>
       <c r="J13" s="3">
         <v>6.5614476203918404</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B13-G13) / B13) *100</f>
         <v>13.846153846153847</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>24</v>
       </c>
@@ -1299,18 +1300,18 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
+        <f>(B14/E14)</f>
         <v>3.2008520498199876E-2</v>
       </c>
       <c r="J14" s="3">
         <v>4.8738594055175701</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B14-G14) / B14) *100</f>
         <v>13.274336283185843</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1334,18 +1335,18 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
+        <f>(B15/E15)</f>
         <v>4.198960490072131E-2</v>
       </c>
       <c r="J15" s="3">
         <v>13.4379465579986</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B15-G15) / B15) *100</f>
         <v>11.272727272727273</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>20</v>
       </c>
@@ -1369,18 +1370,18 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
+        <f>(B16/E16)</f>
         <v>4.207163587355691E-2</v>
       </c>
       <c r="J16" s="3">
         <v>4.6388559341430602</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B16-G16) / B16) *100</f>
         <v>10.16949152542373</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1404,18 +1405,18 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
+        <f>(B17/E17)</f>
         <v>3.443479971915514E-2</v>
       </c>
       <c r="J17" s="3">
         <v>15.3036353588104</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B17-G17) / B17) *100</f>
         <v>10.064935064935066</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>44</v>
       </c>
@@ -1439,18 +1440,18 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f>(B18/E18)</f>
         <v>4.9529859429541807E-2</v>
       </c>
       <c r="J18" s="3">
         <v>1.1929130554199201</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B18-G18) / B18) *100</f>
         <v>9.5238095238095237</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1474,18 +1475,18 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
+        <f>(B19/E19)</f>
         <v>4.9341968868949392E-2</v>
       </c>
       <c r="J19" s="3">
         <v>7.9552712440490696</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B19-G19) / B19) *100</f>
         <v>8.8235294117647065</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1509,18 +1510,18 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
+        <f>(B20/E20)</f>
         <v>3.6196943789387814E-2</v>
       </c>
       <c r="J20" s="3">
         <v>3.7244164943695002</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B20-G20) / B20) *100</f>
         <v>7.4626865671641784</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1544,18 +1545,18 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
+        <f>(B21/E21)</f>
         <v>2.2053938228101727E-2</v>
       </c>
       <c r="J21" s="3">
         <v>10.777540922164899</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B21-G21) / B21) *100</f>
         <v>6.309148264984227</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1579,18 +1580,18 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
+        <f>(B22/E22)</f>
         <v>4.0708537310940159E-2</v>
       </c>
       <c r="J22" s="3">
         <v>7.9094345569610596</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B22-G22) / B22) *100</f>
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1614,18 +1615,18 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
+        <f>(B23/E23)</f>
         <v>3.7552021607915556E-2</v>
       </c>
       <c r="J23" s="3">
         <v>11.2351152896881</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B23-G23) / B23) *100</f>
         <v>2.7522935779816518</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1649,18 +1650,18 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
+        <f>(B24/E24)</f>
         <v>2.5827586511377384E-2</v>
       </c>
       <c r="J24" s="3">
         <v>3.0352573394775302</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B24-G24) / B24) *100</f>
         <v>2.5641025641025639</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -1684,18 +1685,18 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
+        <f>(B25/E25)</f>
         <v>3.8504141985418648E-2</v>
       </c>
       <c r="J25" s="3">
         <v>3.0280170440673801</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B25-G25) / B25) *100</f>
         <v>2.1739130434782608</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -1719,18 +1720,18 @@
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
+        <f>(B26/E26)</f>
         <v>2.698392633145013E-2</v>
       </c>
       <c r="J26" s="3">
         <v>3.0121250152587802</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B26-G26) / B26) *100</f>
         <v>1.8018018018018018</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1754,18 +1755,18 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
+        <f>(B27/E27)</f>
         <v>4.5594565803231304E-2</v>
       </c>
       <c r="J27" s="3">
         <v>21.489585876464801</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="0"/>
+        <f>ABS((B27-G27) / B27) *100</f>
         <v>0.92592592592592582</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -1778,11 +1779,11 @@
         <v>2336</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" ref="D28:E28" si="2">SUM(D1:D27)</f>
+        <f>SUM(D1:D27)</f>
         <v>69841878</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(E1:E27)</f>
         <v>133463.15</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -1804,143 +1805,140 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ref="B29:K29" si="3">AVERAGE(B2:B27)</f>
+        <f>AVERAGE(B2:B27)</f>
         <v>202.11538461538461</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(C2:C27)</f>
         <v>89.84615384615384</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(D2:D27)</f>
         <v>2686226.076923077</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(E2:E27)</f>
         <v>5133.1980769230768</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(F2:F27)</f>
         <v>522.0038461538461</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(G2:G27)</f>
         <v>183.11538461538461</v>
       </c>
       <c r="H29" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H2:H27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(I2:I27)</f>
         <v>4.130278205208688E-2</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J2:J27)</f>
         <v>7.6945143754665493</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K2:K27)</f>
         <v>14.528226360122167</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" ref="B30:K30" si="4">MIN(B2:B27)</f>
+        <f>MIN(B2:B27)</f>
         <v>63</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(C2:C27)</f>
         <v>30</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(D2:D27)</f>
         <v>374426</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(E2:E27)</f>
         <v>1211.54</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(F2:F27)</f>
         <v>283.7</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(G2:G27)</f>
         <v>46</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(H2:H27)</f>
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(I2:I27)</f>
         <v>2.2053938228101727E-2</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(J2:J27)</f>
         <v>0.49235701560974099</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="4"/>
+        <f>MIN(K2:K27)</f>
         <v>0.92592592592592582</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" ref="B31:K31" si="5">MAX(B2:B27)</f>
+        <f>MAX(B2:B27)</f>
         <v>383</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(C2:C27)</f>
         <v>251</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(D2:D27)</f>
         <v>5150418</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(E2:E27)</f>
         <v>14373.85</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(F2:F27)</f>
         <v>712.74</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(G2:G27)</f>
         <v>321</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(H2:H27)</f>
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(I2:I27)</f>
         <v>8.2482904752805272E-2</v>
       </c>
       <c r="J31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(J2:J27)</f>
         <v>21.489585876464801</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="5"/>
+        <f>MAX(K2:K27)</f>
         <v>47.800586510263933</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
